--- a/analysis/ts_pivot_graphs.xlsx
+++ b/analysis/ts_pivot_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\kz-qandy-qantar\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167CF2F-D4EA-4D82-A6E4-AB48DFB2B081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739BF1A-D593-4D21-A580-7DB172A0230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2870" yWindow="520" windowWidth="15210" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -111,22 +111,28 @@
     <t>2023.5</t>
   </si>
   <si>
+    <t>Cluster 1 Outlets</t>
+  </si>
+  <si>
+    <t>Cluster 2 Outlets</t>
+  </si>
+  <si>
     <t>c1_logcount</t>
   </si>
   <si>
     <t>c2_logcount</t>
   </si>
   <si>
-    <t>Cluster 1 Keywords</t>
+    <t>C1 Keywords in C1 Outlets</t>
   </si>
   <si>
-    <t>Cluster 2 Keywords</t>
+    <t>C1 Keywords in C2 Outlets</t>
   </si>
   <si>
-    <t>Cluster 1 Outlets</t>
+    <t>C2 Keywords in C1 Outlets</t>
   </si>
   <si>
-    <t>Cluster 2 Outlets</t>
+    <t>C2 Keywords in C2 Outlets</t>
   </si>
 </sst>
 </file>
@@ -218,67 +224,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Log</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Counts of Cluster 1 and Cluster 2 Articles  </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -301,7 +247,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -376,13 +322,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.0374264979406238</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6127838567197355</c:v>
+                  <c:v>1.4623979978989561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4471580313422192</c:v>
+                  <c:v>1.0791812460476249</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.90308998699194354</c:v>
@@ -400,13 +346,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0413926851582251</c:v>
+                  <c:v>0.90308998699194354</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.69897000433601886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90308998699194354</c:v>
+                  <c:v>0.69897000433601886</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.69897000433601886</c:v>
@@ -432,7 +378,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F9A-4A32-9D61-7EC09650381A}"/>
+              <c16:uniqueId val="{00000000-72AF-4B7F-A7E2-8EB4B2541915}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -453,8 +399,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -531,10 +478,10 @@
                   <c:v>2.2833012287035497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6020599913279623</c:v>
+                  <c:v>1.568201724066995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3617278360175928</c:v>
+                  <c:v>1.3010299956639813</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.77815125038364363</c:v>
@@ -584,7 +531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6F9A-4A32-9D61-7EC09650381A}"/>
+              <c16:uniqueId val="{00000001-72AF-4B7F-A7E2-8EB4B2541915}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -597,11 +544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1383193760"/>
-        <c:axId val="1383180864"/>
+        <c:axId val="1327097743"/>
+        <c:axId val="1327100655"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1383193760"/>
+        <c:axId val="1327097743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1383180864"/>
+        <c:crossAx val="1327100655"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -652,7 +599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1383180864"/>
+        <c:axId val="1327100655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1383193760"/>
+        <c:crossAx val="1327097743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -804,67 +751,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cluster 1 Keyword</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frequencies</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -879,7 +766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cluster 1 Keywords</c:v>
+                  <c:v>C1 Keywords in C1 Outlets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -887,7 +774,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -962,13 +849,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.3611111111111109</c:v>
+                  <c:v>1.4848484848484851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.074074074074074</c:v>
+                  <c:v>2.6363636363636358</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.8571428571428572</c:v>
@@ -986,13 +873,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5</c:v>
+                  <c:v>3.5714285714285721</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7142857142857144</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.5</c:v>
@@ -1018,7 +905,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBEB-40F9-A479-1982DA023575}"/>
+              <c16:uniqueId val="{00000000-A987-4359-94B3-09DC3D6A860B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1027,11 +914,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cluster 2 Keywords</c:v>
+                  <c:v>C1 Keywords in C2 Outlets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1039,8 +926,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1109,33 +997,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$19</c:f>
+              <c:f>Sheet1!$I$3:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.2407407407407407</c:v>
+                  <c:v>0.8534031413612565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15</c:v>
+                  <c:v>1.2222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5789473684210531</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2142857142857143</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1144,13 +1032,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1170,7 +1058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BBEB-40F9-A479-1982DA023575}"/>
+              <c16:uniqueId val="{00000001-A987-4359-94B3-09DC3D6A860B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1183,11 +1071,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1483101616"/>
-        <c:axId val="1483109520"/>
+        <c:axId val="1327151983"/>
+        <c:axId val="1327155311"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1483101616"/>
+        <c:axId val="1327151983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1483109520"/>
+        <c:crossAx val="1327155311"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1238,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1483109520"/>
+        <c:axId val="1327155311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1483101616"/>
+        <c:crossAx val="1327151983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,62 +1278,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cluster 2 Keyword Frequencies</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1456,11 +1289,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cluster 1 Keywords</c:v>
+                  <c:v>C2 Keywords in C1 Outlets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1468,7 +1301,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1538,33 +1371,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$19</c:f>
+              <c:f>Sheet1!$J$3:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.8534031413612565</c:v>
+                  <c:v>0.14141414141414141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.128205128205128</c:v>
+                  <c:v>0.2142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1818181818181821</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.2142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.428571428571429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1573,13 +1406,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.470588235294118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1599,7 +1432,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8046-47C7-A06F-F7668E790FE9}"/>
+              <c16:uniqueId val="{00000000-7CE6-4FEF-B677-61AC59634181}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1612,7 +1445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cluster 2 Keywords</c:v>
+                  <c:v>C2 Keywords in C2 Outlets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1620,8 +1453,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1698,10 +1532,10 @@
                   <c:v>0.76439790575916233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1025641025641026</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31818181818181818</c:v>
+                  <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1751,7 +1585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8046-47C7-A06F-F7668E790FE9}"/>
+              <c16:uniqueId val="{00000001-7CE6-4FEF-B677-61AC59634181}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1764,11 +1598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1626589232"/>
-        <c:axId val="1626579248"/>
+        <c:axId val="1536202575"/>
+        <c:axId val="1536198831"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1626589232"/>
+        <c:axId val="1536202575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1626579248"/>
+        <c:crossAx val="1536198831"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1819,7 +1653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1626579248"/>
+        <c:axId val="1536198831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1626589232"/>
+        <c:crossAx val="1536202575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3629,23 +3463,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25802</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>140935</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>318131</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>137761</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFCC9AE-F57E-40FF-8664-CAFBEF297078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE3B2BF-78E9-4555-8DBE-11CC37AB2A8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3665,23 +3499,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>344461</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>147914</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>338666</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>163789</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>739775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E5413C-579F-4154-A1F4-FEE5B5038516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92010764-4D91-4100-9735-C006B7638503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3701,23 +3535,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>324556</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>105201</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>917575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>436538</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F488247-D445-4589-AFEA-BEC54BCA4FAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE260D8-E8B6-4F19-988A-D73452A8A05E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,18 +3859,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="11" width="14.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -4068,22 +3905,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4097,27 +3934,27 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>191</v>
       </c>
       <c r="F3">
         <f>LOG(D3+1)</f>
-        <v>2.0374264979406238</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>LOG(E3+1)</f>
         <v>2.2833012287035497</v>
       </c>
       <c r="H3">
-        <v>1.3611111111111109</v>
+        <v>1.4848484848484851</v>
       </c>
       <c r="I3">
         <v>0.8534031413612565</v>
       </c>
       <c r="J3">
-        <v>0.2407407407407407</v>
+        <v>0.14141414141414141</v>
       </c>
       <c r="K3">
         <v>0.76439790575916233</v>
@@ -4134,30 +3971,30 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F19" si="0">LOG(D4+1)</f>
-        <v>1.6127838567197355</v>
+        <v>1.4623979978989561</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G19" si="1">LOG(E4+1)</f>
-        <v>1.6020599913279623</v>
+        <v>1.568201724066995</v>
       </c>
       <c r="H4">
-        <v>2.0499999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="I4">
-        <v>1.128205128205128</v>
+        <v>1.2222222222222221</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K4">
-        <v>0.1025641025641026</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4171,30 +4008,30 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.4471580313422192</v>
+        <v>1.0791812460476249</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.3617278360175928</v>
+        <v>1.3010299956639813</v>
       </c>
       <c r="H5">
-        <v>1.074074074074074</v>
+        <v>2.6363636363636358</v>
       </c>
       <c r="I5">
-        <v>2.1818181818181821</v>
+        <v>1.5789473684210531</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.31818181818181818</v>
+        <v>0.36842105263157893</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -4393,21 +4230,21 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.0413926851582251</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>3.5714285714285721</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4467,21 +4304,21 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.90308998699194354</v>
+        <v>0.69897000433601886</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
         <v>0.6020599913279624</v>
       </c>
       <c r="H13">
-        <v>4.7142857142857144</v>
+        <v>3.75</v>
       </c>
       <c r="I13">
         <v>2.333333333333333</v>
